--- a/py_xl/AUTO/blank_cell.xlsx
+++ b/py_xl/AUTO/blank_cell.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="GAJI"/>
@@ -133,7 +133,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,12 +151,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -226,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -235,9 +229,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -249,10 +240,7 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -261,19 +249,19 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -282,13 +270,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -601,867 +586,867 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="22" width="10.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="10.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="22" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="22" width="10.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="23" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="19" width="10.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="19" width="10.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="19" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="19" width="10.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="19" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="20" width="18.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="14">
+      <c r="A2" s="12">
         <v>912071</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="12">
         <v>350002</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="12">
         <v>1262073</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="13">
         <v>182414.2</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="12">
         <v>1079658.8</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15">
         <v>448872</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="15">
         <v>448872</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="15">
         <v>0</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="15">
         <v>448872</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="17">
+      <c r="A4" s="15">
         <v>495605</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="15">
         <v>488171</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="15">
         <v>983776</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="15">
         <v>99121</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="15">
         <v>884655</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="17">
+      <c r="A5" s="15">
         <v>799464</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="15">
         <v>214417</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="15">
         <v>1013881</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="15">
         <v>159892.8</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="15">
         <v>853988.2</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="17">
+      <c r="A6" s="15">
         <v>64929</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="15">
         <v>324970</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="15">
         <v>389899</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="15">
         <v>12985.8</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="15">
         <v>376913.2</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="17">
+      <c r="A7" s="15">
         <v>959847</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="15">
         <v>144113</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="15">
         <v>1103960</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="15">
         <v>191969.4</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="15">
         <v>911990.6</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="F7" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="17">
+      <c r="A8" s="15">
         <v>805001</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="15">
         <v>414396</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="15">
         <v>1219397</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="15">
         <v>161000.2</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="15">
         <v>1058396.8</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="17">
+      <c r="A9" s="15">
         <v>923363</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="15">
         <v>271054</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="15">
         <v>1194417</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="15">
         <v>184672.6</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="15">
         <v>1009744.4</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="17">
+      <c r="A10" s="15">
         <v>282580</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <v>169463</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="15">
         <v>452043</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="15">
         <v>56516</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="15">
         <v>395527</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="17">
+      <c r="A11" s="15">
         <v>96122</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <v>490631</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="15">
         <v>586753</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="15">
         <v>19224.4</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="15">
         <v>567528.6</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="17">
+      <c r="A12" s="15">
         <v>798094</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="15">
         <v>321762</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="15">
         <v>1119856</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="15">
         <v>159618.8</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="15">
         <v>960237.2</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="17">
+      <c r="A13" s="15">
         <v>200222</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="15">
         <v>474244</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="15">
         <v>674466</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="15">
         <v>40044.4</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="18"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="17">
+      <c r="A14" s="15">
         <v>65407</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="15">
         <v>42142</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="15">
         <v>107549</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="17">
         <v>13081.4</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="15">
         <v>94467.6</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="17">
+      <c r="A15" s="15">
         <v>686073</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="15">
         <v>427165</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="15">
         <v>1113238</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="15">
         <v>137214.6</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="15">
         <v>976023.4</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="14">
+      <c r="A16" s="12">
         <v>16216</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="12">
         <v>119175</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="12">
         <v>135391</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="12">
         <v>3243.2</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="12">
         <v>132147.8</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="17">
+      <c r="A17" s="15">
         <v>875325</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="15">
         <v>291481</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="15">
         <v>1166806</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="15">
         <v>175065</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="15">
         <v>991741</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="17">
+      <c r="A18" s="15">
         <v>465591</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="15">
         <v>43023</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="15">
         <v>508614</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="15">
         <v>93118.2</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="15">
         <v>415495.8</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="17">
+      <c r="A19" s="15">
         <v>576575</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="17">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15">
         <v>576575</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="15">
         <v>115315</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="15">
         <v>461260</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="17">
+      <c r="A20" s="15">
         <v>163642</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="15">
         <v>274497</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="15">
         <v>438139</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="15">
         <v>32728.4</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="15">
         <v>405410.6</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="17">
+      <c r="A21" s="15">
         <v>925970</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="15">
         <v>31786</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="15">
         <v>957756</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="15">
         <v>185194</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="15">
         <v>772562</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="17">
+      <c r="A22" s="15">
         <v>959847</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="15">
         <v>144113</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="15">
         <v>1103960</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="15">
         <v>191969.4</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="15">
         <v>911990.6</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="17">
+      <c r="A23" s="15">
         <v>138130</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="15">
         <v>293141</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="15">
         <v>431271</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="15">
         <v>27626</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="15">
         <v>403645</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="17">
+      <c r="A24" s="15">
         <v>678319</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="15">
         <v>217251</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="15">
         <v>895570</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="15">
         <v>135663.8</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="15">
         <v>759906.2</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="17">
+      <c r="A25" s="15">
         <v>74021</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="15">
         <v>106553</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="15">
         <v>180574</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="15">
         <v>14804.2</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="15">
         <v>165769.8</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="17">
+      <c r="A26" s="15">
         <v>388249</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="15">
         <v>61773</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="15">
         <v>450022</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="15">
         <v>77649.8</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="15">
         <v>372372.2</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="17">
+      <c r="A27" s="15">
         <v>492184</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="15">
         <v>136741</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="15">
         <v>628925</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="15">
         <v>98436.8</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="15">
         <v>530488.2</v>
       </c>
-      <c r="F27" s="18"/>
+      <c r="F27" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="17">
+      <c r="A28" s="15">
         <v>611450</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="15">
         <v>470040</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="17">
+      <c r="C28" s="15"/>
+      <c r="D28" s="15">
         <v>122290</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="15">
         <v>-122290</v>
       </c>
-      <c r="F28" s="18"/>
+      <c r="F28" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="17">
+      <c r="A29" s="15">
         <v>972068</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="15">
         <v>309974</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="15">
         <v>1282042</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="15">
         <v>194413.6</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="15">
         <v>1087628.4</v>
       </c>
-      <c r="F29" s="18"/>
+      <c r="F29" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="17">
+      <c r="A30" s="15">
         <v>967422</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="15">
         <v>366974</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="15">
         <v>1334396</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="15">
         <v>193484.4</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="15">
         <v>1140911.6</v>
       </c>
-      <c r="F30" s="18"/>
+      <c r="F30" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="17">
+      <c r="A31" s="15">
         <v>889385</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="15">
         <v>453938</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="15">
         <v>1343323</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="15">
         <v>177877</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="15">
         <v>1165446</v>
       </c>
-      <c r="F31" s="18"/>
+      <c r="F31" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="17">
+      <c r="A32" s="15">
         <v>392286</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="15">
         <v>92809</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="15">
         <v>485095</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="15">
         <v>78457.2</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="15">
         <v>406637.8</v>
       </c>
-      <c r="F32" s="18"/>
+      <c r="F32" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="17">
+      <c r="A33" s="15">
         <v>326224</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="15">
         <v>368224</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="15">
         <v>694448</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="15">
         <v>65244.8</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="15">
         <v>629203.2</v>
       </c>
-      <c r="F33" s="18"/>
+      <c r="F33" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="17">
+      <c r="A34" s="15">
         <v>519767</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B34" s="15">
         <v>306618</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="15">
         <v>826385</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="15">
         <v>103953.4</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="15">
         <v>722431.6</v>
       </c>
-      <c r="F34" s="18"/>
+      <c r="F34" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="17">
+      <c r="A35" s="15">
         <v>595232</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="15">
         <v>163915</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C35" s="15">
         <v>759147</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="15">
         <v>119046.4</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="15">
         <v>640100.6</v>
       </c>
-      <c r="F35" s="18"/>
+      <c r="F35" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="17">
+      <c r="A36" s="15">
         <v>350758</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="15">
         <v>168196</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="15">
         <v>518954</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="15">
         <v>70151.6</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="15">
         <v>448802.4</v>
       </c>
-      <c r="F36" s="18"/>
+      <c r="F36" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="17">
+      <c r="A37" s="15">
         <v>800974</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="15">
         <v>106262</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="15">
         <v>907236</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="17">
+      <c r="D37" s="15"/>
+      <c r="E37" s="15">
         <v>907236</v>
       </c>
-      <c r="F37" s="18"/>
+      <c r="F37" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="17">
+      <c r="A38" s="15">
         <v>768575</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="15">
         <v>135756</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="15">
         <v>904331</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="15">
         <v>153715</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="15">
         <v>750616</v>
       </c>
-      <c r="F38" s="18"/>
+      <c r="F38" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="17">
+      <c r="A39" s="15">
         <v>993511</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="15">
         <v>253414</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="15">
         <v>1246925</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="15">
         <v>198702.2</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="15">
         <v>1048222.8</v>
       </c>
-      <c r="F39" s="18"/>
+      <c r="F39" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="17">
+      <c r="A40" s="15">
         <v>394973</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="15">
         <v>385963</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="15">
         <v>780936</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="15">
         <v>78994.6</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="15">
         <v>701941.4</v>
       </c>
-      <c r="F40" s="18"/>
+      <c r="F40" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="17">
+      <c r="A41" s="15">
         <v>692671</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="15">
         <v>200806</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="15">
         <v>893477</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="15">
         <v>138534.2</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="15">
         <v>754942.8</v>
       </c>
-      <c r="F41" s="18"/>
+      <c r="F41" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="17">
+      <c r="A42" s="15">
         <v>799107</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="15">
         <v>160017</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="15">
         <v>959124</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="15">
         <v>159821.4</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="15">
         <v>799302.6</v>
       </c>
-      <c r="F42" s="18"/>
+      <c r="F42" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="17">
+      <c r="A43" s="15">
         <v>959847</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="15">
         <v>144113</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="15">
         <v>1103960</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="15">
         <v>191969.4</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="15">
         <v>911990.6</v>
       </c>
-      <c r="F43" s="18"/>
+      <c r="F43" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="17">
+      <c r="A44" s="15">
         <v>990429</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="15">
         <v>114695</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="15">
         <v>1105124</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="15">
         <v>198085.8</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="15">
         <v>907038.2</v>
       </c>
-      <c r="F44" s="18"/>
+      <c r="F44" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="17">
+      <c r="A45" s="15">
         <v>11011</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="15">
         <v>174252</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="15">
         <v>185263</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="15">
         <v>2202.2</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="15">
         <v>183060.8</v>
       </c>
-      <c r="F45" s="18"/>
+      <c r="F45" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="17">
+      <c r="A46" s="15">
         <v>334146</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="15">
         <v>215608</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="15">
         <v>549754</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="15">
         <v>66829.2</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="15">
         <v>482924.8</v>
       </c>
-      <c r="F46" s="18"/>
+      <c r="F46" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1475,16 +1460,16 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="5.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="10.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="5.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="10.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="18.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1517,11 +1502,11 @@
       <c r="C2" s="3">
         <v>84695012</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="3">
         <v>7048799571</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1541,7 +1526,7 @@
       <c r="E3" s="3">
         <v>1610466157</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1561,7 +1546,7 @@
       <c r="E4" s="3">
         <v>9089849958</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1581,12 +1566,12 @@
       <c r="E5" s="3">
         <v>3948810973</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="4"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>6654803</v>
       </c>
@@ -1599,7 +1584,7 @@
       <c r="E6" s="3">
         <v>7456426731</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1616,8 +1601,8 @@
       <c r="D7" s="3">
         <v>326212530</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1637,7 +1622,7 @@
       <c r="E8" s="3">
         <v>2447155165</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1657,7 +1642,7 @@
       <c r="E9" s="3">
         <v>7466743114</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1677,7 +1662,7 @@
       <c r="E10" s="3">
         <v>1547549979</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1697,27 +1682,27 @@
       <c r="E11" s="3">
         <v>5465083595</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>1295</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>1796425</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>16968784</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>524773338</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>7312988181</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1737,7 +1722,7 @@
       <c r="E13" s="3">
         <v>4430992270</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1757,7 +1742,7 @@
       <c r="E14" s="3">
         <v>5469707892</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1777,7 +1762,7 @@
       <c r="E15" s="3">
         <v>1326702889</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1797,7 +1782,7 @@
       <c r="E16" s="3">
         <v>6473323815</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1805,7 +1790,7 @@
       <c r="A17" s="3">
         <v>6418</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="3">
         <v>76642087</v>
       </c>
@@ -1815,7 +1800,7 @@
       <c r="E17" s="3">
         <v>7736507781</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1835,7 +1820,7 @@
       <c r="E18" s="3">
         <v>8545117977</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1855,7 +1840,7 @@
       <c r="E19" s="3">
         <v>6631106140</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1875,7 +1860,7 @@
       <c r="E20" s="3">
         <v>6686975752</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1895,7 +1880,7 @@
       <c r="E21" s="3">
         <v>6329808145</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1915,7 +1900,7 @@
       <c r="E22" s="3">
         <v>7747272623</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1935,7 +1920,7 @@
       <c r="E23" s="3">
         <v>3590747631</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1955,7 +1940,7 @@
       <c r="E24" s="3">
         <v>2244359908</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1966,14 +1951,14 @@
       <c r="B25" s="3">
         <v>8397404</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="3"/>
       <c r="D25" s="3">
         <v>756966311</v>
       </c>
       <c r="E25" s="3">
         <v>5439615658</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1993,7 +1978,7 @@
       <c r="E26" s="3">
         <v>6170456235</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2007,11 +1992,11 @@
       <c r="C27" s="3">
         <v>44921435</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="3">
         <v>9752098812</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2031,7 +2016,7 @@
       <c r="E28" s="3">
         <v>5911514465</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2051,7 +2036,7 @@
       <c r="E29" s="3">
         <v>4107775884</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2071,7 +2056,7 @@
       <c r="E30" s="3">
         <v>2633156224</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2091,7 +2076,7 @@
       <c r="E31" s="3">
         <v>6510299377</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2111,25 +2096,25 @@
       <c r="E32" s="3">
         <v>8826308367</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="9"/>
-      <c r="B33" s="6">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5">
         <v>5423004</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>75015805</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>888765897</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <v>2935071859</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2149,7 +2134,7 @@
       <c r="E34" s="3">
         <v>2518724429</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2169,7 +2154,7 @@
       <c r="E35" s="3">
         <v>6764670589</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2186,28 +2171,28 @@
       <c r="D36" s="3">
         <v>471199138</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="5" t="s">
+      <c r="E36" s="3"/>
+      <c r="F36" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <v>1827</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>6509831</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>60396813</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <v>752422968</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>5646622423</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2227,7 +2212,7 @@
       <c r="E38" s="3">
         <v>8947178636</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2247,7 +2232,7 @@
       <c r="E39" s="3">
         <v>8051816865</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2267,7 +2252,7 @@
       <c r="E40" s="3">
         <v>4597529514</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2287,7 +2272,7 @@
       <c r="E41" s="3">
         <v>1501788597</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2307,7 +2292,7 @@
       <c r="E42" s="3">
         <v>4580102106</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2327,7 +2312,7 @@
       <c r="E43" s="3">
         <v>2845608261</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2347,7 +2332,7 @@
       <c r="E44" s="3">
         <v>3164347618</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2358,14 +2343,14 @@
       <c r="B45" s="3">
         <v>4150516</v>
       </c>
-      <c r="C45" s="4"/>
+      <c r="C45" s="3"/>
       <c r="D45" s="3">
         <v>379775256</v>
       </c>
       <c r="E45" s="3">
         <v>9703402747</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2385,7 +2370,7 @@
       <c r="E46" s="3">
         <v>8478189458</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="4" t="s">
         <v>9</v>
       </c>
     </row>

--- a/py_xl/AUTO/blank_cell.xlsx
+++ b/py_xl/AUTO/blank_cell.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="GAJI"/>
@@ -586,7 +586,7 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -598,7 +598,7 @@
     <col min="6" max="6" style="20" width="18.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
@@ -618,7 +618,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="12">
         <v>912071</v>
       </c>
@@ -638,7 +638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="14"/>
       <c r="B3" s="15">
         <v>448872</v>
@@ -656,7 +656,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="15">
         <v>495605</v>
       </c>
@@ -676,7 +676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="15">
         <v>799464</v>
       </c>
@@ -696,7 +696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="15">
         <v>64929</v>
       </c>
@@ -714,7 +714,7 @@
       </c>
       <c r="F6" s="16"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="15">
         <v>959847</v>
       </c>
@@ -732,7 +732,7 @@
       </c>
       <c r="F7" s="16"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="15">
         <v>805001</v>
       </c>
@@ -752,7 +752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="15">
         <v>923363</v>
       </c>
@@ -770,7 +770,7 @@
       </c>
       <c r="F9" s="16"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="15">
         <v>282580</v>
       </c>
@@ -788,7 +788,7 @@
       </c>
       <c r="F10" s="16"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="15">
         <v>96122</v>
       </c>
@@ -806,7 +806,7 @@
       </c>
       <c r="F11" s="16"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="15">
         <v>798094</v>
       </c>
@@ -826,7 +826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="15">
         <v>200222</v>
       </c>
@@ -842,7 +842,7 @@
       <c r="E13" s="15"/>
       <c r="F13" s="16"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="15">
         <v>65407</v>
       </c>
@@ -862,7 +862,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="15">
         <v>686073</v>
       </c>
@@ -882,7 +882,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="12">
         <v>16216</v>
       </c>
@@ -902,7 +902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="15">
         <v>875325</v>
       </c>
@@ -922,13 +922,11 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="15">
         <v>465591</v>
       </c>
-      <c r="B18" s="15">
-        <v>43023</v>
-      </c>
+      <c r="B18" s="15"/>
       <c r="C18" s="15">
         <v>508614</v>
       </c>
@@ -942,7 +940,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="15">
         <v>576575</v>
       </c>
@@ -960,7 +958,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="15">
         <v>163642</v>
       </c>
@@ -980,7 +978,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="15">
         <v>925970</v>
       </c>
@@ -1000,7 +998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="15">
         <v>959847</v>
       </c>
@@ -1020,7 +1018,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="15">
         <v>138130</v>
       </c>
@@ -1038,7 +1036,7 @@
       </c>
       <c r="F23" s="16"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="15">
         <v>678319</v>
       </c>
@@ -1460,12 +1458,12 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="5.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.862142857142858" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="10.147857142857141" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="8" width="12.719285714285713" customWidth="1" bestFit="1"/>
@@ -1808,9 +1806,7 @@
       <c r="A18" s="3">
         <v>4836</v>
       </c>
-      <c r="B18" s="3">
-        <v>9914556</v>
-      </c>
+      <c r="B18" s="3"/>
       <c r="C18" s="3">
         <v>72061957</v>
       </c>
